--- a/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,10 +9077,10 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="C174">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="D174">
         <v>2151</v>
@@ -9160,6 +9163,53 @@
         <v>0</v>
       </c>
       <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>3053</v>
+      </c>
+      <c r="C176">
+        <v>3053</v>
+      </c>
+      <c r="D176">
+        <v>1554</v>
+      </c>
+      <c r="E176">
+        <v>1499</v>
+      </c>
+      <c r="F176">
+        <v>1027</v>
+      </c>
+      <c r="G176">
+        <v>926</v>
+      </c>
+      <c r="H176">
+        <v>877</v>
+      </c>
+      <c r="I176">
+        <v>132</v>
+      </c>
+      <c r="J176">
+        <v>44</v>
+      </c>
+      <c r="K176">
+        <v>11</v>
+      </c>
+      <c r="L176">
+        <v>36</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
         <v>0</v>
       </c>
     </row>

--- a/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9077,13 +9080,13 @@
         <v>185</v>
       </c>
       <c r="B174">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C174">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="D174">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="E174">
         <v>1487</v>
@@ -9101,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="J174">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K174">
         <v>27</v>
@@ -9210,6 +9213,53 @@
         <v>0</v>
       </c>
       <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177">
+        <v>3009</v>
+      </c>
+      <c r="C177">
+        <v>3009</v>
+      </c>
+      <c r="D177">
+        <v>1577</v>
+      </c>
+      <c r="E177">
+        <v>1432</v>
+      </c>
+      <c r="F177">
+        <v>901</v>
+      </c>
+      <c r="G177">
+        <v>1043</v>
+      </c>
+      <c r="H177">
+        <v>787</v>
+      </c>
+      <c r="I177">
+        <v>228</v>
+      </c>
+      <c r="J177">
+        <v>15</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>34</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
         <v>0</v>
       </c>
     </row>

--- a/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/8/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9263,6 +9266,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178">
+        <v>2552</v>
+      </c>
+      <c r="C178">
+        <v>2552</v>
+      </c>
+      <c r="D178">
+        <v>1413</v>
+      </c>
+      <c r="E178">
+        <v>1139</v>
+      </c>
+      <c r="F178">
+        <v>788</v>
+      </c>
+      <c r="G178">
+        <v>969</v>
+      </c>
+      <c r="H178">
+        <v>654</v>
+      </c>
+      <c r="I178">
+        <v>90</v>
+      </c>
+      <c r="J178">
+        <v>22</v>
+      </c>
+      <c r="K178">
+        <v>4</v>
+      </c>
+      <c r="L178">
+        <v>24</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
